--- a/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
   <si>
     <t>MYNZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,36 +665,39 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44012</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -708,22 +711,25 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>500</v>
+      </c>
+      <c r="G8" s="3">
+        <v>200</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -737,22 +743,25 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>200</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -766,22 +775,25 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -795,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,22 +823,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -837,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,22 +885,25 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -895,22 +917,25 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -924,8 +949,11 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,22 +962,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -963,22 +992,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,22 +1040,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1034,22 +1070,25 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1063,22 +1102,25 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>100</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1092,22 +1134,25 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1121,37 +1166,43 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,22 +1230,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1208,22 +1262,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1237,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,37 +1326,43 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,22 +1422,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1382,22 +1454,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,22 +1518,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1469,27 +1550,30 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44012</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
@@ -1503,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,16 +1617,17 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1558,45 +1647,51 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1616,45 +1711,51 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1674,16 +1775,19 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>300</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1703,45 +1807,51 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>500</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1761,37 +1871,43 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,37 +1967,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,16 +2031,19 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1935,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,16 +2093,17 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1990,16 +2123,19 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2019,16 +2155,19 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -2048,16 +2187,19 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -2077,16 +2219,19 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2106,16 +2251,19 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,16 +2379,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2251,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,37 +2489,43 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>3</v>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,16 +2553,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,16 +2681,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2400</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,27 +2745,30 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44012</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
@@ -2588,22 +2782,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2617,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,22 +2830,23 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2659,8 +2860,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,22 +3020,25 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2833,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,22 +3068,23 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2875,8 +3098,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,22 +3162,25 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2962,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,22 +3336,25 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3120,22 +3368,25 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -3149,22 +3400,25 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3176,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
   <si>
     <t>MYNZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -714,26 +715,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -746,26 +750,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,25 +785,28 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,8 +820,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,26 +837,27 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,25 +905,28 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -920,25 +940,28 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -952,8 +975,11 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,26 +989,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
         <v>12300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,26 +1022,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1057,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,25 +1074,26 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1073,26 +1107,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,26 +1142,29 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1137,26 +1177,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1169,8 +1212,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1195,14 +1241,17 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,26 +1282,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,26 +1317,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1297,8 +1352,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1355,14 +1416,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,25 +1492,28 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1457,26 +1527,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,8 +1562,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,26 +1597,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1553,31 +1632,34 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1590,8 +1672,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,20 +1704,21 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E41" s="3">
         <v>8700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1676,26 +1766,29 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,8 +1807,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1740,25 +1836,28 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1778,20 +1877,23 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E46" s="3">
         <v>9600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +1912,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1836,26 +1941,29 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,8 +1982,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1900,14 +2011,17 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,40 +2087,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,20 +2157,23 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E54" s="3">
         <v>10000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,20 +2224,21 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,19 +2257,22 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2158,20 +2292,23 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,20 +2327,23 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,19 +2362,22 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E61" s="3">
         <v>400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2254,20 +2397,23 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,20 +2537,23 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2518,14 +2686,17 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3" t="s">
-        <v>3</v>
+      <c r="K70" s="3">
+        <v>0</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,20 +2727,23 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,20 +2867,23 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E76" s="3">
         <v>6400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2400</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,31 +2937,34 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2785,26 +2977,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,8 +3012,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,23 +3029,24 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2863,8 +3062,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,23 +3237,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
-        <v>-200</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3272,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,19 +3289,20 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3101,8 +3322,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,19 +3392,22 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -3197,8 +3427,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,23 +3582,26 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>10600</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,19 +3617,22 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3403,19 +3652,22 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>8600</v>
-      </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
@@ -3433,6 +3685,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>MYNZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,48 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,29 +719,32 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -753,29 +757,32 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,8 +795,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,19 +807,19 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -823,8 +833,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,29 +851,30 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,28 +925,31 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -943,28 +963,31 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,29 +1016,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1025,29 +1052,32 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-11700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1060,8 +1090,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,28 +1108,29 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1110,29 +1144,32 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-11400</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1145,29 +1182,32 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1180,29 +1220,32 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,8 +1258,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1244,14 +1290,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,29 +1334,32 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-11700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1320,29 +1372,32 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-11700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1355,8 +1410,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1419,14 +1480,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,28 +1562,31 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1530,29 +1600,32 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1565,8 +1638,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,29 +1676,32 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1635,34 +1714,37 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1675,8 +1757,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,23 +1791,24 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E41" s="3">
         <v>26000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1769,14 +1859,17 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1784,14 +1877,14 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,57 +1903,63 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1880,23 +1979,26 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E46" s="3">
         <v>26800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1944,29 +2049,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>1800</v>
       </c>
       <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2014,14 +2125,17 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,16 +2207,19 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>800</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -2116,17 +2236,20 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,23 +2283,26 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E54" s="3">
         <v>27600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,23 +2355,24 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,13 +2391,16 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2274,8 +2408,8 @@
       <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2295,23 +2429,26 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>300</v>
+      </c>
+      <c r="G59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
-        <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,23 +2467,26 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,22 +2505,25 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E61" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F61" s="3">
         <v>400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2400,23 +2543,26 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
         <v>1900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,23 +2695,26 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2689,14 +2857,17 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>3</v>
+      <c r="L70" s="3">
+        <v>0</v>
       </c>
       <c r="M70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,23 +2901,26 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-25000</v>
       </c>
       <c r="E72" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,23 +3053,26 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E76" s="3">
         <v>23800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,34 +3129,37 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2980,29 +3172,32 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3015,8 +3210,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,28 +3228,29 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3065,8 +3264,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,28 +3454,31 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-3200</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+      <c r="I89" s="3">
+        <v>-200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -3275,8 +3492,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,31 +3510,32 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3325,8 +3546,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,28 +3622,31 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
+        <v>1200</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3430,8 +3660,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,28 +3828,31 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>24100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>10600</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3620,28 +3866,31 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3655,28 +3904,31 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>17300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>8600</v>
       </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+      <c r="I102" s="3">
+        <v>-100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
@@ -3688,6 +3940,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
   <si>
     <t>MYNZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,56 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -722,35 +724,41 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>300</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -760,22 +768,28 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>400</v>
@@ -783,11 +797,11 @@
       <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>200</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -798,8 +812,14 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,25 +827,25 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
@@ -836,8 +856,14 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,34 +878,36 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F12" s="3">
         <v>2700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>300</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3">
+        <v>300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>100</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
@@ -890,8 +918,14 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,34 +962,40 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -966,22 +1006,28 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>200</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
@@ -989,11 +1035,11 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -1004,8 +1050,14 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,35 +1069,37 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>12300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,34 +1109,40 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-13900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-12600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-11700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
@@ -1093,8 +1153,14 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,19 +1175,21 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1130,13 +1198,13 @@
         <v>200</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1147,34 +1215,40 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-12500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-11400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-400</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-200</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
@@ -1185,19 +1259,25 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1208,11 +1288,11 @@
       <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1223,34 +1303,40 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-12600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-300</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
@@ -1261,8 +1347,14 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1293,14 +1385,20 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,34 +1435,40 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-13800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-12600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-300</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
@@ -1375,34 +1479,40 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-13800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-12600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-300</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1523,14 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1567,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1483,14 +1605,20 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1655,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,19 +1699,25 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
@@ -1586,13 +1726,13 @@
         <v>-200</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1603,34 +1743,40 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-13800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-12600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-11700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-300</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
@@ -1641,8 +1787,14 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,34 +1831,40 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-13800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-12600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-11700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-300</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
@@ -1717,40 +1875,46 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1760,8 +1924,14 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1946,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1964,31 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F41" s="3">
         <v>17100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>26000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +2004,14 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1862,35 +2042,41 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>400</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,22 +2092,28 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
         <v>200</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1932,40 +2124,46 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>800</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1982,29 +2180,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F46" s="3">
         <v>18400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>26800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2224,14 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2052,35 +2262,41 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,31 +2312,37 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>3700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2128,14 +2350,20 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2400,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,8 +2444,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2221,11 +2461,11 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2239,17 +2479,23 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2532,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F54" s="3">
         <v>20200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>27600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2576,14 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2598,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2616,31 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,28 +2656,34 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2432,29 +2700,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2744,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,29 +2788,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,29 +2832,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2876,14 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2920,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2964,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +3008,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +3052,14 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +3074,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +3114,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +3158,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2860,14 +3196,20 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3246,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-25000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-14700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3290,14 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3334,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3378,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3422,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F76" s="3">
         <v>14100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>23800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3466,14 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,40 +3510,46 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3175,34 +3559,40 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-13800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-12600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-11700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-300</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
@@ -3213,8 +3603,14 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,22 +3625,24 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>300</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -3252,11 +3650,11 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3267,8 +3665,14 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3709,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3753,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3797,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3841,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,35 +3885,41 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-8300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3929,14 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,23 +3951,25 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -3537,11 +3979,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3549,8 +3991,14 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +4035,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,34 +4079,40 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3663,8 +4123,14 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +4145,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +4185,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +4229,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4273,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,34 +4317,40 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>24100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>10600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
@@ -3869,34 +4361,40 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
@@ -3907,35 +4405,41 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-8900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>17300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4447,12 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MYNZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="92">
   <si>
     <t>MYNZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,60 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -730,8 +731,11 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,29 +743,29 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>300</v>
       </c>
       <c r="G8" s="3">
+        <v>300</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -774,8 +778,11 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -786,26 +793,26 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>100</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -818,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,28 +837,28 @@
         <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
-      </c>
-      <c r="F10" s="3">
-        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
       </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,38 +893,39 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="3">
         <v>3400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,37 +985,40 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1012,37 +1032,40 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,38 +1097,39 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="3">
         <v>8200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1115,38 +1142,41 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-13900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1159,8 +1189,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,37 +1210,38 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1221,38 +1255,41 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-8100</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="F21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-13300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-12500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1265,8 +1302,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1276,27 +1316,27 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
-        <v>100</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1309,38 +1349,41 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1353,8 +1396,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1391,14 +1437,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,38 +1490,41 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-13800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1485,38 +1537,41 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,8 +1584,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1611,14 +1672,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>3</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,37 +1772,40 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1749,38 +1819,41 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1866,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,38 +1913,41 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,43 +1960,46 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1930,8 +2012,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10900</v>
+        <v>9300</v>
       </c>
       <c r="E41" s="3">
         <v>10900</v>
       </c>
       <c r="F41" s="3">
+        <v>10900</v>
+      </c>
+      <c r="G41" s="3">
         <v>17100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>26000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2048,38 +2138,41 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
+      <c r="O42" s="3">
+        <v>0</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,25 +2191,28 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -2130,43 +2226,46 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>800</v>
       </c>
       <c r="F45" s="3">
         <v>800</v>
       </c>
       <c r="G45" s="3">
+        <v>800</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -2186,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>26800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2230,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2268,38 +2373,41 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="E48" s="3">
         <v>3500</v>
       </c>
       <c r="F48" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2318,20 +2426,23 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2344,8 +2455,8 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2356,14 +2467,17 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2467,8 +2587,8 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2485,17 +2605,20 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E54" s="3">
         <v>19300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,22 +2793,25 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E58" s="3">
         <v>5600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2685,8 +2819,8 @@
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2706,32 +2840,35 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2750,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,31 +2934,34 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>400</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2838,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
       </c>
       <c r="H62" s="3">
+        <v>900</v>
+      </c>
+      <c r="I62" s="3">
         <v>1900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E66" s="3">
         <v>14100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3202,14 +3370,17 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>3</v>
+      <c r="O70" s="3">
+        <v>0</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-38100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-30600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E76" s="3">
         <v>5200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,43 +3705,46 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3565,38 +3757,41 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3609,8 +3804,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,37 +3825,38 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>200</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
+        <v>500</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3671,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,38 +4105,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-5100</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-8300</v>
+        <v>-10800</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>-6500</v>
+        <v>-14800</v>
       </c>
       <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3935,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3985,8 +4206,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,37 +4312,40 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-100</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-400</v>
+        <v>-1500</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="H94" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-1500</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -4129,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,37 +4566,40 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>5400</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
+        <v>6200</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="H100" s="3">
-        <v>10600</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
-      <c r="J100" s="3">
+        <v>13500</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4367,37 +4613,40 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
@@ -4411,37 +4660,40 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>100</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-8900</v>
+        <v>-6200</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>17300</v>
+        <v>8400</v>
       </c>
       <c r="H102" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
+        <v>8700</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>-100</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
@@ -4453,6 +4705,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
